--- a/public/excelfiles/data.xlsx
+++ b/public/excelfiles/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8355"/>
+    <workbookView windowWidth="19890" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,25 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastname </t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>umair</t>
   </si>
@@ -59,6 +41,66 @@
   </si>
   <si>
     <t>Ratan@2310</t>
+  </si>
+  <si>
+    <t>tarun</t>
+  </si>
+  <si>
+    <t>gariya</t>
+  </si>
+  <si>
+    <t>tarungariya@gmail.com</t>
+  </si>
+  <si>
+    <t>Tarun@2310</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>sharukh</t>
+  </si>
+  <si>
+    <t>shahrukh@gmail.com</t>
+  </si>
+  <si>
+    <t>Shahrukh@1404</t>
+  </si>
+  <si>
+    <t>sumair</t>
+  </si>
+  <si>
+    <t>sumair@gmail.com</t>
+  </si>
+  <si>
+    <t>Sumair@1705</t>
+  </si>
+  <si>
+    <t>manish</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>manish@gmail.com</t>
+  </si>
+  <si>
+    <t>Manish@2807</t>
+  </si>
+  <si>
+    <t>kadfs</t>
+  </si>
+  <si>
+    <t>dss</t>
+  </si>
+  <si>
+    <t>hjghjhjhg</t>
+  </si>
+  <si>
+    <t>dsfsdfs</t>
+  </si>
+  <si>
+    <t>sdfdsfds</t>
   </si>
 </sst>
 </file>
@@ -66,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,24 +122,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,7 +162,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,84 +244,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -212,21 +261,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,10 +469,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -464,21 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,31 +566,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,130 +589,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,10 +720,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,13 +1045,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
@@ -1027,73 +1061,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="umairansari@gmail.com"/>
-    <hyperlink ref="E2" r:id="rId2" display="Umair@2308"/>
-    <hyperlink ref="D3" r:id="rId3" display="ratanupadhyay@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId4" display="Ratan@2310"/>
+    <hyperlink ref="D1" r:id="rId1" display="umairansari@gmail.com"/>
+    <hyperlink ref="E1" r:id="rId2" display="Umair@2308"/>
+    <hyperlink ref="D2" r:id="rId3" display="ratanupadhyay@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId4" display="Ratan@2310"/>
+    <hyperlink ref="D3" r:id="rId5" display="tarungariya@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId6" display="Tarun@2310"/>
+    <hyperlink ref="D4" r:id="rId7" display="shahrukh@gmail.com" tooltip="mailto:shahrukh@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId8" display="Shahrukh@1404"/>
+    <hyperlink ref="D5" r:id="rId9" display="sumair@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId10" display="Sumair@1705"/>
+    <hyperlink ref="D6" r:id="rId11" display="manish@gmail.com"/>
+    <hyperlink ref="E6" r:id="rId12" display="Manish@2807"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter>
+    <oddHeader>&amp;LFirstName,LastName
+&amp;CEmail&amp;RPassword</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>